--- a/SQL評量_正規化題目.xlsx
+++ b/SQL評量_正規化題目.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2864ED7D-826C-4AEF-BF2A-18FE49605300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A682AE-446C-4DAC-B2AA-C80E9EF70528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -372,7 +372,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="000\-000000"/>
+    <numFmt numFmtId="176" formatCode="000\-000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -412,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -492,12 +492,44 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -506,15 +538,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -534,20 +563,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -558,52 +578,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,24 +912,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -978,727 +968,727 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="14">
         <v>100</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="14">
         <v>1</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="14">
         <v>3142</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="14">
         <v>1</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="14">
         <v>1072</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="14">
         <v>1</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="14">
         <v>32</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="14">
         <v>1</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="15">
         <v>26</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="14">
         <v>1</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="15">
         <v>26</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="14">
         <v>1</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="15">
         <v>128</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="14">
         <v>2</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="G23" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="15">
         <v>128</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="14">
         <v>2</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="14">
         <v>353</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="14">
         <v>1</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="14">
         <v>501</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="14">
         <v>1</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="14">
         <v>194</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="14">
         <v>1</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="14">
         <v>78</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="14">
         <v>1</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="17"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="18" t="s">
@@ -1706,214 +1696,214 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="21"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C47" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D47" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="16" t="s">
         <v>49</v>
       </c>
     </row>

--- a/SQL評量_正規化題目.xlsx
+++ b/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A682AE-446C-4DAC-B2AA-C80E9EF70528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B673A0FE-10E7-4675-9138-2F92B646867A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="107">
   <si>
     <t>C001</t>
   </si>
@@ -364,6 +364,10 @@
   </si>
   <si>
     <t>苗栗縣苗栗市大同路53號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -569,15 +573,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,6 +589,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -912,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1318,15 +1322,15 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1344,30 +1348,30 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1377,7 +1381,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>54</v>
@@ -1385,293 +1389,293 @@
       <c r="F16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>100</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>1</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="11">
         <v>3142</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="11">
         <v>1</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="11">
         <v>1072</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="11">
         <v>1</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="11">
         <v>32</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>26</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <v>26</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="11">
         <v>1</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <v>128</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="11">
         <v>2</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <v>128</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="11">
         <v>2</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="11">
         <v>353</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="11">
         <v>1</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="11">
         <v>501</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="11">
         <v>1</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="11">
         <v>194</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="11">
         <v>1</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="11">
         <v>78</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="11">
         <v>1</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1682,16 +1686,16 @@
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="15" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1703,131 +1707,131 @@
         <v>53</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -1838,72 +1842,72 @@
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="18" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="13" t="s">
         <v>49</v>
       </c>
     </row>

--- a/SQL評量_正規化題目.xlsx
+++ b/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B673A0FE-10E7-4675-9138-2F92B646867A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E23B75D-C232-452E-8989-638B8B44378B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1375,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>53</v>
@@ -1704,7 +1704,7 @@
         <v>53</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>106</v>
@@ -1860,7 +1860,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>106</v>

--- a/SQL評量_正規化題目.xlsx
+++ b/SQL評量_正規化題目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E23B75D-C232-452E-8989-638B8B44378B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A988FB4-3511-49A3-B18F-59ED6987C5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="124">
   <si>
     <t>C001</t>
   </si>
@@ -101,30 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>苗栗縣竹南鎮中埔街20號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮和平街79號</t>
-  </si>
-  <si>
-    <t>苗栗縣竹南鎮龍山路三段142號</t>
-  </si>
-  <si>
-    <t>苗栗縣後龍鎮中華路1498號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份市民族里和平路102號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份市忠孝忠孝一路69號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份市信義里中正路65號</t>
-  </si>
-  <si>
-    <t>苗栗縣頭份市信義里中正路116號</t>
-  </si>
-  <si>
     <t>設施容人數量(人)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,14 +173,6 @@
   </si>
   <si>
     <t>設施轄管分局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTEGER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -351,23 +319,127 @@
     <t>苗栗縣頭份市信義里中正路116號(78人)</t>
   </si>
   <si>
-    <t>苗栗縣苗栗市米市街80號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣苗栗市光復路117號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣苗栗市博愛街109號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗栗縣苗栗市大同路53號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
+    <t>頭份市忠孝忠孝一路69號</t>
+  </si>
+  <si>
+    <t>竹南鎮民族街72號</t>
+  </si>
+  <si>
+    <t>苗栗市金鳳街109號</t>
+  </si>
+  <si>
+    <t>頭份市中興路503號</t>
+  </si>
+  <si>
+    <t>VARCHAR2 (10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2 (50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2 (10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER (10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2 (20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南鎮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>後龍鎮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗栗市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>頭份市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中埔街20號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和平街79號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍山路三段142號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中華路1498號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米市街80號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光復路117號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博愛街109號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大同路53號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民族里和平路102號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義里中正路65號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義里中正路116號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在市鎮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公義路1035號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南里中山路 103 號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山佳里國光街 14 號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>埔頂里中興路136-1號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠苗里中正路 766 號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2 (10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -598,6 +670,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,7 +998,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -938,57 +1019,57 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
         <v>1</v>
@@ -997,10 +1078,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
@@ -1008,22 +1089,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -1032,10 +1113,10 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>3</v>
@@ -1043,22 +1124,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -1067,10 +1148,10 @@
         <v>2</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>3</v>
@@ -1078,22 +1159,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -1102,10 +1183,10 @@
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>3</v>
@@ -1113,22 +1194,22 @@
     </row>
     <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -1137,10 +1218,10 @@
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>13</v>
@@ -1148,22 +1229,22 @@
     </row>
     <row r="7" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
@@ -1172,10 +1253,10 @@
         <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>13</v>
@@ -1183,22 +1264,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -1207,10 +1288,10 @@
         <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>17</v>
@@ -1218,22 +1299,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1242,10 +1323,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>17</v>
@@ -1253,22 +1334,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1277,10 +1358,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>17</v>
@@ -1288,22 +1369,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1312,10 +1393,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>17</v>
@@ -1323,7 +1404,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1331,351 +1412,353 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="C14" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>96</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>53</v>
+        <v>97</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="11">
+        <v>102</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="11">
         <v>100</v>
       </c>
-      <c r="F17" s="11">
+      <c r="G17" s="11">
         <v>1</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="11">
+        <v>102</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="11">
         <v>3142</v>
       </c>
-      <c r="F18" s="11">
+      <c r="G18" s="11">
         <v>1</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="11">
+        <v>102</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="11">
         <v>1072</v>
       </c>
-      <c r="F19" s="11">
+      <c r="G19" s="11">
         <v>1</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="11">
+        <v>103</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="11">
         <v>32</v>
       </c>
-      <c r="F20" s="11">
+      <c r="G20" s="11">
         <v>1</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="12">
+        <v>104</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="12">
         <v>26</v>
       </c>
-      <c r="F21" s="11">
+      <c r="G21" s="11">
         <v>1</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="12">
+        <v>104</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="12">
         <v>26</v>
       </c>
-      <c r="F22" s="11">
+      <c r="G22" s="11">
         <v>1</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="12">
         <v>128</v>
       </c>
-      <c r="F23" s="11">
+      <c r="G23" s="11">
         <v>2</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="12">
+        <v>104</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="12">
         <v>128</v>
       </c>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>2</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="11">
+        <v>105</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="11">
         <v>353</v>
       </c>
-      <c r="F25" s="11">
+      <c r="G25" s="11">
         <v>1</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="11">
+        <v>105</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="11">
         <v>501</v>
       </c>
-      <c r="F26" s="11">
+      <c r="G26" s="11">
         <v>1</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="11">
+        <v>105</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="11">
         <v>194</v>
       </c>
-      <c r="F27" s="11">
+      <c r="G27" s="11">
         <v>1</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="11">
+        <v>105</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="11">
         <v>78</v>
       </c>
-      <c r="F28" s="11">
+      <c r="G28" s="11">
         <v>1</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1683,157 +1766,186 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="21"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>57</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>22</v>
       </c>
@@ -1841,46 +1953,46 @@
       <c r="C45" s="5"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,13 +2000,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,20 +2014,21 @@
         <v>16</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A31:D31"/>
+  <mergeCells count="4">
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A13:G13"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
